--- a/EXPERIMENTATIONS.xlsx
+++ b/EXPERIMENTATIONS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="59">
   <si>
     <t>N</t>
   </si>
@@ -116,12 +116,90 @@
   <si>
     <t>4831, 14474</t>
   </si>
+  <si>
+    <t>2000px/class on both</t>
+  </si>
+  <si>
+    <t>1000px/class on both</t>
+  </si>
+  <si>
+    <t>500 px/class on both</t>
+  </si>
+  <si>
+    <t>250 px/class on both</t>
+  </si>
+  <si>
+    <t>100 px/class on both</t>
+  </si>
+  <si>
+    <t>2000px/class for im1, 1000 for im2</t>
+  </si>
+  <si>
+    <t>2000px/class im1, 100 im2</t>
+  </si>
+  <si>
+    <t>2000px/class for im1, 250 for im2</t>
+  </si>
+  <si>
+    <t>2000px/class for im1, 500 for im2</t>
+  </si>
+  <si>
+    <t>1000px/class im1, 500 im2</t>
+  </si>
+  <si>
+    <t>1000px/class im1, 250 im2</t>
+  </si>
+  <si>
+    <t>1000px/class im1,100 im2</t>
+  </si>
+  <si>
+    <t>500px/class im1, 250 im2</t>
+  </si>
+  <si>
+    <t>500px/class im1, 100 im2</t>
+  </si>
+  <si>
+    <t>250px/class im1, 100 im2</t>
+  </si>
+  <si>
+    <t>cf. conf. matrixes sheet</t>
+  </si>
+  <si>
+    <t>exp_89_2000.mat</t>
+  </si>
+  <si>
+    <t>exp_66_2000.mat</t>
+  </si>
+  <si>
+    <t>exp_89_1000.mat</t>
+  </si>
+  <si>
+    <t>exp_66_1000.mat</t>
+  </si>
+  <si>
+    <t>exp_89_500.mat</t>
+  </si>
+  <si>
+    <t>exp_66_500.mat</t>
+  </si>
+  <si>
+    <t>exp_89_250.mat</t>
+  </si>
+  <si>
+    <t>exp_66_250.mat</t>
+  </si>
+  <si>
+    <t>exp_89_100.mat</t>
+  </si>
+  <si>
+    <t>exp_66_100.mat</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,13 +207,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="27">
@@ -438,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -471,6 +562,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -772,22 +864,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q256"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="2" width="32.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="4"/>
     <col min="7" max="7" width="22.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="22" style="5" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="5"/>
     <col min="10" max="10" width="12.7109375" style="5" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="5" customWidth="1"/>
@@ -977,6 +1069,12 @@
       <c r="F4" s="4">
         <v>92.020700000000005</v>
       </c>
+      <c r="G4" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>48</v>
+      </c>
       <c r="I4" s="5">
         <v>0.80249999999999999</v>
       </c>
@@ -1024,6 +1122,12 @@
       <c r="F5" s="4">
         <v>89.288300000000007</v>
       </c>
+      <c r="G5" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>48</v>
+      </c>
       <c r="I5" s="9">
         <v>0.74860000000000004</v>
       </c>
@@ -1056,226 +1160,526 @@
       <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="D6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="D7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="D8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="D9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="D10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="D11" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>11</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="D12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="D13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>13</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="D14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>14</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="D15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>15</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="D16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>16</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="D17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>17</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="D18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>18</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="D19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>19</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="D20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>20</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="D21" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>21</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="D22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>22</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="D23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>23</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="D24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="32" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>24</v>
       </c>
-      <c r="B25" s="5"/>
+      <c r="B25" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="D25" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" s="32" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>25</v>
       </c>
-      <c r="B26" s="5"/>
+      <c r="B26" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="D26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>26</v>
       </c>
-      <c r="B27" s="5"/>
+      <c r="B27" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="D27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>27</v>
       </c>
-      <c r="B28" s="5"/>
+      <c r="B28" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="D28" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="32" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>28</v>
       </c>
-      <c r="B29" s="5"/>
+      <c r="B29" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="D29" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" s="32" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>29</v>
       </c>
-      <c r="B30" s="5"/>
+      <c r="B30" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="D30" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" s="32" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
@@ -1286,14 +1690,1144 @@
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="G31" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" s="32" t="s">
+        <v>48</v>
+      </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="N31" s="8"/>
     </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="15">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="16">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="16">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="15">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="16">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="15">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="15">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="15">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="15">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="15">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="15">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="15">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="15">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="15">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="15">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="16">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="15">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="15">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="15">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="15">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="15">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="15">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="15">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="15">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="15">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="15">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="15">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="15">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="15">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="15">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="15">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="15">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="16">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="15">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="15">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="15">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="15">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="15">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="15">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="15">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="15">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="15">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="15">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="15">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="15">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="15">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="15">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="15">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="15">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="15">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="15">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="15">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="15">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="15">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="15">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="15">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="15">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="15">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="15">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="16">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="15">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="15">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="15">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="15">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="15">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="15">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="15">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="15">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="15">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="15">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="15">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="15">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="15">
+        <v>255</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1301,7 +2835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K309"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>

--- a/EXPERIMENTATIONS.xlsx
+++ b/EXPERIMENTATIONS.xlsx
@@ -902,10 +902,10 @@
   <dimension ref="A1:R280"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
+      <selection pane="bottomRight" activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2516,16 +2516,36 @@
       <c r="F29" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="60"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="60"/>
+      <c r="G29" s="60">
+        <v>83.2</v>
+      </c>
+      <c r="H29" s="61">
+        <v>0.79</v>
+      </c>
+      <c r="I29" s="60">
+        <v>87.68</v>
+      </c>
+      <c r="J29" s="61">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="K29" s="65">
+        <v>6.6909999999999995E-5</v>
+      </c>
+      <c r="L29" s="60">
+        <v>103.4217</v>
+      </c>
+      <c r="M29" s="60">
+        <v>74.239999999999995</v>
+      </c>
+      <c r="N29" s="61">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="O29" s="65">
+        <v>2.3678999999999999E-4</v>
+      </c>
+      <c r="P29" s="60">
+        <v>44.06</v>
+      </c>
       <c r="Q29" s="66" t="s">
         <v>41</v>
       </c>
@@ -2552,16 +2572,36 @@
       <c r="F30" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="60"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="61"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="60"/>
+      <c r="G30" s="60">
+        <v>83.62</v>
+      </c>
+      <c r="H30" s="61">
+        <v>0.79530000000000001</v>
+      </c>
+      <c r="I30" s="60">
+        <v>86.16</v>
+      </c>
+      <c r="J30" s="61">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="K30" s="65">
+        <v>7.3915E-5</v>
+      </c>
+      <c r="L30" s="60">
+        <v>96.19</v>
+      </c>
+      <c r="M30" s="60">
+        <v>78.56</v>
+      </c>
+      <c r="N30" s="61">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="O30" s="65">
+        <v>2.098E-4</v>
+      </c>
+      <c r="P30" s="60">
+        <v>50.533099999999997</v>
+      </c>
       <c r="Q30" s="66" t="s">
         <v>41</v>
       </c>
@@ -2588,16 +2628,36 @@
       <c r="F31" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="60"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="60"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="60"/>
+      <c r="G31" s="60">
+        <v>82.11</v>
+      </c>
+      <c r="H31" s="61">
+        <v>0.77629999999999999</v>
+      </c>
+      <c r="I31" s="60">
+        <v>84.2</v>
+      </c>
+      <c r="J31" s="61">
+        <v>0.80249999999999999</v>
+      </c>
+      <c r="K31" s="65">
+        <v>8.1944E-5</v>
+      </c>
+      <c r="L31" s="60">
+        <v>88.45</v>
+      </c>
+      <c r="M31" s="60">
+        <v>77.92</v>
+      </c>
+      <c r="N31" s="61">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="O31" s="65">
+        <v>2.1463999999999999E-4</v>
+      </c>
+      <c r="P31" s="60">
+        <v>49.418199999999999</v>
+      </c>
       <c r="Q31" s="66" t="s">
         <v>41</v>
       </c>
@@ -4716,8 +4776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K309"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="G134" sqref="G134"/>
+    <sheetView topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="G147" sqref="G147:K151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9264,121 +9324,502 @@
       <c r="A137" s="13">
         <v>28</v>
       </c>
-      <c r="B137" s="14"/>
-      <c r="C137" s="15"/>
-      <c r="D137" s="15"/>
-      <c r="E137" s="15"/>
-      <c r="F137" s="16"/>
-      <c r="G137" s="14"/>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="15"/>
-      <c r="K137" s="17"/>
+      <c r="B137" s="14">
+        <v>326</v>
+      </c>
+      <c r="C137" s="15">
+        <v>0</v>
+      </c>
+      <c r="D137" s="15">
+        <v>1</v>
+      </c>
+      <c r="E137" s="15">
+        <v>7</v>
+      </c>
+      <c r="F137" s="16">
+        <v>3</v>
+      </c>
+      <c r="G137" s="14">
+        <v>150</v>
+      </c>
+      <c r="H137" s="15">
+        <v>2</v>
+      </c>
+      <c r="I137" s="15">
+        <v>13</v>
+      </c>
+      <c r="J137" s="15">
+        <v>28</v>
+      </c>
+      <c r="K137" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="18"/>
-      <c r="K138" s="19"/>
+      <c r="B138" s="4">
+        <v>147</v>
+      </c>
+      <c r="C138" s="5">
+        <v>396</v>
+      </c>
+      <c r="D138" s="5">
+        <v>1</v>
+      </c>
+      <c r="E138" s="5">
+        <v>0</v>
+      </c>
+      <c r="F138" s="6">
+        <v>0</v>
+      </c>
+      <c r="G138" s="4">
+        <v>83</v>
+      </c>
+      <c r="H138" s="5">
+        <v>142</v>
+      </c>
+      <c r="I138" s="5">
+        <v>2</v>
+      </c>
+      <c r="J138" s="5">
+        <v>3</v>
+      </c>
+      <c r="K138" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="18"/>
-      <c r="K139" s="19"/>
+      <c r="B139" s="4">
+        <v>6</v>
+      </c>
+      <c r="C139" s="5">
+        <v>99</v>
+      </c>
+      <c r="D139" s="5">
+        <v>487</v>
+      </c>
+      <c r="E139" s="5">
+        <v>2</v>
+      </c>
+      <c r="F139" s="6">
+        <v>3</v>
+      </c>
+      <c r="G139" s="4">
+        <v>7</v>
+      </c>
+      <c r="H139" s="5">
+        <v>99</v>
+      </c>
+      <c r="I139" s="5">
+        <v>205</v>
+      </c>
+      <c r="J139" s="5">
+        <v>7</v>
+      </c>
+      <c r="K139" s="19">
+        <v>3</v>
+      </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="18"/>
-      <c r="K140" s="19"/>
+      <c r="B140" s="4">
+        <v>17</v>
+      </c>
+      <c r="C140" s="5">
+        <v>4</v>
+      </c>
+      <c r="D140" s="5">
+        <v>7</v>
+      </c>
+      <c r="E140" s="5">
+        <v>489</v>
+      </c>
+      <c r="F140" s="6">
+        <v>0</v>
+      </c>
+      <c r="G140" s="4">
+        <v>6</v>
+      </c>
+      <c r="H140" s="5">
+        <v>0</v>
+      </c>
+      <c r="I140" s="5">
+        <v>26</v>
+      </c>
+      <c r="J140" s="5">
+        <v>187</v>
+      </c>
+      <c r="K140" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="20"/>
-      <c r="B141" s="21"/>
-      <c r="C141" s="22"/>
-      <c r="D141" s="22"/>
-      <c r="E141" s="22"/>
-      <c r="F141" s="23"/>
-      <c r="G141" s="21"/>
-      <c r="H141" s="22"/>
-      <c r="I141" s="22"/>
-      <c r="J141" s="22"/>
-      <c r="K141" s="24"/>
+      <c r="B141" s="21">
+        <v>4</v>
+      </c>
+      <c r="C141" s="22">
+        <v>1</v>
+      </c>
+      <c r="D141" s="22">
+        <v>4</v>
+      </c>
+      <c r="E141" s="22">
+        <v>2</v>
+      </c>
+      <c r="F141" s="23">
+        <v>494</v>
+      </c>
+      <c r="G141" s="21">
+        <v>4</v>
+      </c>
+      <c r="H141" s="22">
+        <v>7</v>
+      </c>
+      <c r="I141" s="22">
+        <v>4</v>
+      </c>
+      <c r="J141" s="22">
+        <v>25</v>
+      </c>
+      <c r="K141" s="24">
+        <v>244</v>
+      </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="13">
         <v>29</v>
       </c>
-      <c r="B142" s="14"/>
-      <c r="C142" s="15"/>
-      <c r="D142" s="15"/>
-      <c r="E142" s="15"/>
-      <c r="F142" s="16"/>
-      <c r="G142" s="14"/>
-      <c r="H142" s="15"/>
-      <c r="I142" s="15"/>
-      <c r="J142" s="15"/>
-      <c r="K142" s="17"/>
+      <c r="B142" s="14">
+        <v>333</v>
+      </c>
+      <c r="C142" s="15">
+        <v>1</v>
+      </c>
+      <c r="D142" s="15">
+        <v>4</v>
+      </c>
+      <c r="E142" s="15">
+        <v>5</v>
+      </c>
+      <c r="F142" s="16">
+        <v>0</v>
+      </c>
+      <c r="G142" s="14">
+        <v>163</v>
+      </c>
+      <c r="H142" s="15">
+        <v>2</v>
+      </c>
+      <c r="I142" s="15">
+        <v>9</v>
+      </c>
+      <c r="J142" s="15">
+        <v>10</v>
+      </c>
+      <c r="K142" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="18"/>
-      <c r="K143" s="19"/>
+      <c r="B143" s="4">
+        <v>143</v>
+      </c>
+      <c r="C143" s="5">
+        <v>355</v>
+      </c>
+      <c r="D143" s="5">
+        <v>15</v>
+      </c>
+      <c r="E143" s="5">
+        <v>0</v>
+      </c>
+      <c r="F143" s="6">
+        <v>1</v>
+      </c>
+      <c r="G143" s="4">
+        <v>69</v>
+      </c>
+      <c r="H143" s="5">
+        <v>179</v>
+      </c>
+      <c r="I143" s="5">
+        <v>7</v>
+      </c>
+      <c r="J143" s="5">
+        <v>11</v>
+      </c>
+      <c r="K143" s="19">
+        <v>9</v>
+      </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="18"/>
-      <c r="K144" s="19"/>
+      <c r="B144" s="4">
+        <v>4</v>
+      </c>
+      <c r="C144" s="5">
+        <v>144</v>
+      </c>
+      <c r="D144" s="5">
+        <v>478</v>
+      </c>
+      <c r="E144" s="5">
+        <v>2</v>
+      </c>
+      <c r="F144" s="6">
+        <v>2</v>
+      </c>
+      <c r="G144" s="4">
+        <v>8</v>
+      </c>
+      <c r="H144" s="5">
+        <v>57</v>
+      </c>
+      <c r="I144" s="5">
+        <v>199</v>
+      </c>
+      <c r="J144" s="5">
+        <v>2</v>
+      </c>
+      <c r="K144" s="19">
+        <v>3</v>
+      </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="18"/>
-      <c r="K145" s="19"/>
+      <c r="B145" s="4">
+        <v>8</v>
+      </c>
+      <c r="C145" s="5">
+        <v>0</v>
+      </c>
+      <c r="D145" s="5">
+        <v>0</v>
+      </c>
+      <c r="E145" s="5">
+        <v>491</v>
+      </c>
+      <c r="F145" s="6">
+        <v>0</v>
+      </c>
+      <c r="G145" s="4">
+        <v>7</v>
+      </c>
+      <c r="H145" s="5">
+        <v>2</v>
+      </c>
+      <c r="I145" s="5">
+        <v>26</v>
+      </c>
+      <c r="J145" s="5">
+        <v>211</v>
+      </c>
+      <c r="K145" s="19">
+        <v>5</v>
+      </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="20"/>
-      <c r="B146" s="21"/>
-      <c r="C146" s="22"/>
-      <c r="D146" s="22"/>
-      <c r="E146" s="22"/>
-      <c r="F146" s="23"/>
-      <c r="G146" s="21"/>
-      <c r="H146" s="22"/>
-      <c r="I146" s="22"/>
-      <c r="J146" s="22"/>
-      <c r="K146" s="24"/>
+      <c r="B146" s="21">
+        <v>12</v>
+      </c>
+      <c r="C146" s="22">
+        <v>0</v>
+      </c>
+      <c r="D146" s="22">
+        <v>3</v>
+      </c>
+      <c r="E146" s="22">
+        <v>2</v>
+      </c>
+      <c r="F146" s="23">
+        <v>497</v>
+      </c>
+      <c r="G146" s="21">
+        <v>3</v>
+      </c>
+      <c r="H146" s="22">
+        <v>10</v>
+      </c>
+      <c r="I146" s="22">
+        <v>9</v>
+      </c>
+      <c r="J146" s="22">
+        <v>16</v>
+      </c>
+      <c r="K146" s="24">
+        <v>230</v>
+      </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="13">
         <v>30</v>
       </c>
-      <c r="B147" s="14"/>
-      <c r="C147" s="15"/>
-      <c r="D147" s="15"/>
-      <c r="E147" s="15"/>
-      <c r="F147" s="16"/>
-      <c r="G147" s="14"/>
-      <c r="H147" s="15"/>
-      <c r="I147" s="15"/>
-      <c r="J147" s="15"/>
-      <c r="K147" s="17"/>
+      <c r="B147" s="14">
+        <v>263</v>
+      </c>
+      <c r="C147" s="15">
+        <v>16</v>
+      </c>
+      <c r="D147" s="15">
+        <v>1</v>
+      </c>
+      <c r="E147" s="15">
+        <v>3</v>
+      </c>
+      <c r="F147" s="16">
+        <v>0</v>
+      </c>
+      <c r="G147" s="14">
+        <v>197</v>
+      </c>
+      <c r="H147" s="15">
+        <v>5</v>
+      </c>
+      <c r="I147" s="15">
+        <v>10</v>
+      </c>
+      <c r="J147" s="15">
+        <v>23</v>
+      </c>
+      <c r="K147" s="17">
+        <v>15</v>
+      </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="18"/>
-      <c r="K148" s="19"/>
+      <c r="B148" s="4">
+        <v>216</v>
+      </c>
+      <c r="C148" s="5">
+        <v>378</v>
+      </c>
+      <c r="D148" s="5">
+        <v>9</v>
+      </c>
+      <c r="E148" s="5">
+        <v>0</v>
+      </c>
+      <c r="F148" s="6">
+        <v>0</v>
+      </c>
+      <c r="G148" s="4">
+        <v>13</v>
+      </c>
+      <c r="H148" s="5">
+        <v>169</v>
+      </c>
+      <c r="I148" s="5">
+        <v>7</v>
+      </c>
+      <c r="J148" s="5">
+        <v>4</v>
+      </c>
+      <c r="K148" s="19">
+        <v>12</v>
+      </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="18"/>
-      <c r="K149" s="19"/>
+      <c r="B149" s="4">
+        <v>7</v>
+      </c>
+      <c r="C149" s="5">
+        <v>101</v>
+      </c>
+      <c r="D149" s="5">
+        <v>478</v>
+      </c>
+      <c r="E149" s="5">
+        <v>2</v>
+      </c>
+      <c r="F149" s="6">
+        <v>3</v>
+      </c>
+      <c r="G149" s="4">
+        <v>32</v>
+      </c>
+      <c r="H149" s="5">
+        <v>43</v>
+      </c>
+      <c r="I149" s="5">
+        <v>198</v>
+      </c>
+      <c r="J149" s="5">
+        <v>3</v>
+      </c>
+      <c r="K149" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="18"/>
-      <c r="K150" s="19"/>
+      <c r="B150" s="4">
+        <v>13</v>
+      </c>
+      <c r="C150" s="5">
+        <v>4</v>
+      </c>
+      <c r="D150" s="5">
+        <v>7</v>
+      </c>
+      <c r="E150" s="5">
+        <v>489</v>
+      </c>
+      <c r="F150" s="6">
+        <v>0</v>
+      </c>
+      <c r="G150" s="4">
+        <v>8</v>
+      </c>
+      <c r="H150" s="5">
+        <v>17</v>
+      </c>
+      <c r="I150" s="5">
+        <v>34</v>
+      </c>
+      <c r="J150" s="5">
+        <v>196</v>
+      </c>
+      <c r="K150" s="19">
+        <v>7</v>
+      </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="20"/>
-      <c r="B151" s="21"/>
-      <c r="C151" s="22"/>
-      <c r="D151" s="22"/>
-      <c r="E151" s="22"/>
-      <c r="F151" s="23"/>
-      <c r="G151" s="21"/>
-      <c r="H151" s="22"/>
-      <c r="I151" s="22"/>
-      <c r="J151" s="22"/>
-      <c r="K151" s="24"/>
+      <c r="B151" s="21">
+        <v>1</v>
+      </c>
+      <c r="C151" s="22">
+        <v>1</v>
+      </c>
+      <c r="D151" s="22">
+        <v>5</v>
+      </c>
+      <c r="E151" s="22">
+        <v>6</v>
+      </c>
+      <c r="F151" s="23">
+        <v>497</v>
+      </c>
+      <c r="G151" s="21">
+        <v>0</v>
+      </c>
+      <c r="H151" s="22">
+        <v>16</v>
+      </c>
+      <c r="I151" s="22">
+        <v>1</v>
+      </c>
+      <c r="J151" s="22">
+        <v>24</v>
+      </c>
+      <c r="K151" s="24">
+        <v>214</v>
+      </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="13">

--- a/EXPERIMENTATIONS.xlsx
+++ b/EXPERIMENTATIONS.xlsx
@@ -138,9 +138,6 @@
     <t>500px/class im1, 250 im2</t>
   </si>
   <si>
-    <t>500px/class im1, 100 im2</t>
-  </si>
-  <si>
     <t>cf. conf. matrixes sheet</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>N1</t>
+  </si>
+  <si>
+    <t>1000px/class im1,100 im3</t>
   </si>
 </sst>
 </file>
@@ -899,13 +899,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R280"/>
+  <dimension ref="A1:R138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P31" sqref="P31"/>
+      <selection pane="bottomRight" activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,10 +937,10 @@
         <v>14</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>73.06</v>
       </c>
       <c r="Q4" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R4" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -1203,10 +1203,10 @@
         <v>85.6</v>
       </c>
       <c r="Q5" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R5" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1223,10 +1223,10 @@
         <v>55</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="49" t="s">
         <v>42</v>
-      </c>
-      <c r="F6" s="49" t="s">
-        <v>43</v>
       </c>
       <c r="G6" s="27">
         <v>83.82</v>
@@ -1259,10 +1259,10 @@
         <v>91.86</v>
       </c>
       <c r="Q6" s="72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R6" s="73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1279,10 +1279,10 @@
         <v>25</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="49" t="s">
         <v>44</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>45</v>
       </c>
       <c r="G7" s="27">
         <v>79.680000000000007</v>
@@ -1315,10 +1315,10 @@
         <v>56.656700000000001</v>
       </c>
       <c r="Q7" s="72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R7" s="73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1335,10 +1335,10 @@
         <v>20</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="49" t="s">
         <v>46</v>
-      </c>
-      <c r="F8" s="49" t="s">
-        <v>47</v>
       </c>
       <c r="G8" s="27">
         <v>57.44</v>
@@ -1371,10 +1371,10 @@
         <v>17.73</v>
       </c>
       <c r="Q8" s="72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R8" s="73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1391,10 +1391,10 @@
         <v>10</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="49" t="s">
         <v>48</v>
-      </c>
-      <c r="F9" s="49" t="s">
-        <v>49</v>
       </c>
       <c r="G9" s="27">
         <v>47</v>
@@ -1427,10 +1427,10 @@
         <v>11.757999999999999</v>
       </c>
       <c r="Q9" s="72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R9" s="73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -1447,10 +1447,10 @@
         <v>40</v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" s="56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="37">
         <v>54.026000000000003</v>
@@ -1483,10 +1483,10 @@
         <v>39.08</v>
       </c>
       <c r="Q10" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R10" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -1503,10 +1503,10 @@
         <v>20</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" s="37">
         <v>83.413300000000007</v>
@@ -1539,10 +1539,10 @@
         <v>61.918900000000001</v>
       </c>
       <c r="Q11" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R11" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -1559,10 +1559,10 @@
         <v>10</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" s="37">
         <v>84.32</v>
@@ -1595,10 +1595,10 @@
         <v>67.633899999999997</v>
       </c>
       <c r="Q12" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R12" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -1615,10 +1615,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G13" s="37">
         <v>70.400000000000006</v>
@@ -1651,10 +1651,10 @@
         <v>18.04</v>
       </c>
       <c r="Q13" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R13" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -1671,10 +1671,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" s="37">
         <v>75.44</v>
@@ -1707,10 +1707,10 @@
         <v>27.8749</v>
       </c>
       <c r="Q14" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R14" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -1727,10 +1727,10 @@
         <v>30</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G15" s="37">
         <v>81.2</v>
@@ -1763,10 +1763,10 @@
         <v>51.149299999999997</v>
       </c>
       <c r="Q15" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R15" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -1783,10 +1783,10 @@
         <v>38</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G16" s="37">
         <v>76.959999999999994</v>
@@ -1819,10 +1819,10 @@
         <v>36.866700000000002</v>
       </c>
       <c r="Q16" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R16" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -1839,10 +1839,10 @@
         <v>30</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" s="49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" s="27">
         <v>72.671999999999997</v>
@@ -1875,10 +1875,10 @@
         <v>11.57</v>
       </c>
       <c r="Q17" s="72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R17" s="73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -1895,10 +1895,10 @@
         <v>20</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" s="49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G18" s="27">
         <v>78.400000000000006</v>
@@ -1931,10 +1931,10 @@
         <v>24.05</v>
       </c>
       <c r="Q18" s="72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R18" s="73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -1951,10 +1951,10 @@
         <v>10</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F19" s="49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G19" s="27">
         <v>82.88</v>
@@ -1987,10 +1987,10 @@
         <v>35.549999999999997</v>
       </c>
       <c r="Q19" s="72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R19" s="73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -2007,10 +2007,10 @@
         <v>4</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20" s="49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G20" s="27">
         <v>84.703999999999994</v>
@@ -2043,10 +2043,10 @@
         <v>45.302799999999998</v>
       </c>
       <c r="Q20" s="72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R20" s="73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -2063,10 +2063,10 @@
         <v>20</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F21" s="48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G21" s="37">
         <v>75.309100000000001</v>
@@ -2099,10 +2099,10 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="Q21" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R21" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -2119,10 +2119,10 @@
         <v>10</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F22" s="48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G22" s="37">
         <v>82.91</v>
@@ -2155,10 +2155,10 @@
         <v>8.2100000000000009</v>
       </c>
       <c r="Q22" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R22" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -2175,10 +2175,10 @@
         <v>4</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F23" s="48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="37">
         <v>84.69</v>
@@ -2211,10 +2211,10 @@
         <v>23.43</v>
       </c>
       <c r="Q23" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R23" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -2231,10 +2231,10 @@
         <v>30</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" s="49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G24" s="27">
         <v>41.013300000000001</v>
@@ -2267,10 +2267,10 @@
         <v>12.59</v>
       </c>
       <c r="Q24" s="72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R24" s="73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -2287,10 +2287,10 @@
         <v>20</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" s="49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G25" s="27">
         <v>49.973300000000002</v>
@@ -2323,10 +2323,10 @@
         <v>21.8249</v>
       </c>
       <c r="Q25" s="72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R25" s="73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -2343,10 +2343,10 @@
         <v>10</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" s="49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G26" s="27">
         <v>52.53</v>
@@ -2379,10 +2379,10 @@
         <v>27.821100000000001</v>
       </c>
       <c r="Q26" s="72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R26" s="73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -2399,10 +2399,10 @@
         <v>4</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" s="49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G27" s="27">
         <v>50.773299999999999</v>
@@ -2435,10 +2435,10 @@
         <v>25.02</v>
       </c>
       <c r="Q27" s="74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R27" s="75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:18" s="62" customFormat="1" x14ac:dyDescent="0.25">
@@ -2455,10 +2455,10 @@
         <v>40</v>
       </c>
       <c r="E28" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="59" t="s">
         <v>43</v>
-      </c>
-      <c r="F28" s="59" t="s">
-        <v>44</v>
       </c>
       <c r="G28" s="60">
         <v>73.813299999999998</v>
@@ -2491,10 +2491,10 @@
         <v>30.6</v>
       </c>
       <c r="Q28" s="66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R28" s="67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="62" customFormat="1" x14ac:dyDescent="0.25">
@@ -2511,10 +2511,10 @@
         <v>30</v>
       </c>
       <c r="E29" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="64" t="s">
         <v>43</v>
-      </c>
-      <c r="F29" s="64" t="s">
-        <v>44</v>
       </c>
       <c r="G29" s="60">
         <v>83.2</v>
@@ -2547,10 +2547,10 @@
         <v>44.06</v>
       </c>
       <c r="Q29" s="66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R29" s="67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:18" s="62" customFormat="1" x14ac:dyDescent="0.25">
@@ -2567,10 +2567,10 @@
         <v>20</v>
       </c>
       <c r="E30" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="64" t="s">
         <v>43</v>
-      </c>
-      <c r="F30" s="64" t="s">
-        <v>44</v>
       </c>
       <c r="G30" s="60">
         <v>83.62</v>
@@ -2603,10 +2603,10 @@
         <v>50.533099999999997</v>
       </c>
       <c r="Q30" s="66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R30" s="67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:18" s="62" customFormat="1" x14ac:dyDescent="0.25">
@@ -2623,10 +2623,10 @@
         <v>10</v>
       </c>
       <c r="E31" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="64" t="s">
         <v>43</v>
-      </c>
-      <c r="F31" s="64" t="s">
-        <v>44</v>
       </c>
       <c r="G31" s="60">
         <v>82.11</v>
@@ -2659,10 +2659,10 @@
         <v>49.418199999999999</v>
       </c>
       <c r="Q31" s="66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R31" s="67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -2679,26 +2679,46 @@
         <v>30</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F32" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="G32" s="37"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="37"/>
+        <v>45</v>
+      </c>
+      <c r="G32" s="37">
+        <v>73.055999999999997</v>
+      </c>
+      <c r="H32" s="36">
+        <v>0.66320000000000001</v>
+      </c>
+      <c r="I32" s="37">
+        <v>81.680000000000007</v>
+      </c>
+      <c r="J32" s="36">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="K32" s="38">
+        <v>9.2299999999999994E-5</v>
+      </c>
+      <c r="L32" s="37">
+        <v>80.239999999999995</v>
+      </c>
+      <c r="M32" s="37">
+        <v>38.56</v>
+      </c>
+      <c r="N32" s="36">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="O32" s="38">
+        <v>5.7600000000000001E-4</v>
+      </c>
+      <c r="P32" s="37">
+        <v>9.6660000000000004</v>
+      </c>
       <c r="Q32" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R32" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -2715,26 +2735,46 @@
         <v>20</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F33" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="G33" s="37"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="37"/>
+        <v>45</v>
+      </c>
+      <c r="G33" s="37">
+        <v>78.111999999999995</v>
+      </c>
+      <c r="H33" s="36">
+        <v>0.72640000000000005</v>
+      </c>
+      <c r="I33" s="37">
+        <v>83.8</v>
+      </c>
+      <c r="J33" s="36">
+        <v>0.79749999999999999</v>
+      </c>
+      <c r="K33" s="38">
+        <v>8.3739999999999994E-5</v>
+      </c>
+      <c r="L33" s="37">
+        <v>87.1477</v>
+      </c>
+      <c r="M33" s="37">
+        <v>55.36</v>
+      </c>
+      <c r="N33" s="36">
+        <v>0.442</v>
+      </c>
+      <c r="O33" s="38">
+        <v>6.066E-4</v>
+      </c>
+      <c r="P33" s="37">
+        <v>17.945</v>
+      </c>
       <c r="Q33" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R33" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -2751,53 +2791,99 @@
         <v>10</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F34" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="G34" s="37"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="37"/>
+        <v>45</v>
+      </c>
+      <c r="G34" s="37">
+        <v>83.68</v>
+      </c>
+      <c r="H34" s="36">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="I34" s="37">
+        <v>85.88</v>
+      </c>
+      <c r="J34" s="36">
+        <v>0.82350000000000001</v>
+      </c>
+      <c r="K34" s="38">
+        <v>7.4968000000000005E-5</v>
+      </c>
+      <c r="L34" s="37">
+        <v>95.11</v>
+      </c>
+      <c r="M34" s="37">
+        <v>74.88</v>
+      </c>
+      <c r="N34" s="36">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="O34" s="38">
+        <v>4.6900000000000002E-4</v>
+      </c>
+      <c r="P34" s="37">
+        <v>31.669599999999999</v>
+      </c>
       <c r="Q34" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R34" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>34</v>
       </c>
-      <c r="B35" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="8">
+      <c r="B35" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="35">
         <v>55</v>
       </c>
-      <c r="D35" s="8">
-        <v>20</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q35" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="R35" s="73" t="s">
-        <v>41</v>
-      </c>
+      <c r="D35" s="35">
+        <v>5</v>
+      </c>
+      <c r="E35" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="37">
+        <v>78.335999999999999</v>
+      </c>
+      <c r="H35" s="36">
+        <v>0.72919999999999996</v>
+      </c>
+      <c r="I35" s="37">
+        <v>79.680000000000007</v>
+      </c>
+      <c r="J35" s="36">
+        <v>0.746</v>
+      </c>
+      <c r="K35" s="38">
+        <v>9.9887000000000001E-5</v>
+      </c>
+      <c r="L35" s="37">
+        <v>74.641999999999996</v>
+      </c>
+      <c r="M35" s="37">
+        <v>72.959999999999994</v>
+      </c>
+      <c r="N35" s="36">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="O35" s="38">
+        <v>4.9158000000000003E-4</v>
+      </c>
+      <c r="P35" s="37">
+        <v>29.858000000000001</v>
+      </c>
+      <c r="Q35" s="70"/>
+      <c r="R35" s="71"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
@@ -2810,92 +2896,158 @@
         <v>55</v>
       </c>
       <c r="D36" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F36" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="G36" s="27">
+        <v>83.38</v>
+      </c>
+      <c r="H36" s="31">
+        <v>0.7923</v>
+      </c>
+      <c r="I36" s="27">
+        <v>89.24</v>
+      </c>
+      <c r="J36" s="31">
+        <v>0.86550000000000005</v>
+      </c>
+      <c r="K36" s="25">
+        <v>5.9599999999999999E-5</v>
+      </c>
+      <c r="L36" s="27">
+        <v>112.09</v>
+      </c>
+      <c r="M36" s="27">
+        <v>24.8</v>
+      </c>
+      <c r="N36" s="31">
+        <v>0.06</v>
+      </c>
+      <c r="O36" s="25">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="P36" s="27">
+        <v>1.7470000000000001</v>
       </c>
       <c r="Q36" s="72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R36" s="73" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>36</v>
       </c>
-      <c r="B37" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="35">
+      <c r="B37" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="8">
         <v>55</v>
       </c>
-      <c r="D37" s="35">
-        <v>30</v>
-      </c>
-      <c r="E37" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="G37" s="37"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="R37" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="8">
+        <v>10</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" s="27">
+        <v>77.345500000000001</v>
+      </c>
+      <c r="H37" s="31">
+        <v>0.71679999999999999</v>
+      </c>
+      <c r="I37" s="27">
+        <v>80.52</v>
+      </c>
+      <c r="J37" s="31">
+        <v>0.75649999999999995</v>
+      </c>
+      <c r="K37" s="25">
+        <v>9.7149000000000001E-5</v>
+      </c>
+      <c r="L37" s="27">
+        <v>76.75</v>
+      </c>
+      <c r="M37" s="27">
+        <v>45.6</v>
+      </c>
+      <c r="N37" s="31">
+        <v>0.32</v>
+      </c>
+      <c r="O37" s="25">
+        <v>1.5E-3</v>
+      </c>
+      <c r="P37" s="27">
+        <v>8.23</v>
+      </c>
+      <c r="Q37" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="R37" s="73" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>37</v>
       </c>
-      <c r="B38" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="35">
+      <c r="B38" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="8">
         <v>55</v>
       </c>
-      <c r="D38" s="35">
-        <v>20</v>
-      </c>
-      <c r="E38" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="F38" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="G38" s="37"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="R38" s="71" t="s">
-        <v>41</v>
-      </c>
+      <c r="D38" s="8">
+        <v>5</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="27">
+        <v>82.4</v>
+      </c>
+      <c r="H38" s="31">
+        <v>0.78</v>
+      </c>
+      <c r="I38" s="27">
+        <v>84.56</v>
+      </c>
+      <c r="J38" s="31">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="K38" s="25">
+        <v>8.0888000000000002E-5</v>
+      </c>
+      <c r="L38" s="27">
+        <v>89.728999999999999</v>
+      </c>
+      <c r="M38" s="27">
+        <v>60.8</v>
+      </c>
+      <c r="N38" s="31">
+        <v>0.51</v>
+      </c>
+      <c r="O38" s="25">
+        <v>1.5E-3</v>
+      </c>
+      <c r="P38" s="27">
+        <v>13.3057</v>
+      </c>
+      <c r="Q38" s="72"/>
+      <c r="R38" s="73"/>
     </row>
     <row r="39" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
@@ -2908,103 +3060,193 @@
         <v>55</v>
       </c>
       <c r="D39" s="35">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E39" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="F39" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="G39" s="37"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="37"/>
+      <c r="G39" s="37">
+        <v>44.106699999999996</v>
+      </c>
+      <c r="H39" s="36">
+        <v>0.30130000000000001</v>
+      </c>
+      <c r="I39" s="37">
+        <v>47.2</v>
+      </c>
+      <c r="J39" s="36">
+        <v>0.34</v>
+      </c>
+      <c r="K39" s="38">
+        <v>2.9292000000000001E-4</v>
+      </c>
+      <c r="L39" s="37">
+        <v>19.8659</v>
+      </c>
+      <c r="M39" s="37">
+        <v>37.92</v>
+      </c>
+      <c r="N39" s="36">
+        <v>0.224</v>
+      </c>
+      <c r="O39" s="38">
+        <v>5.7572999999999999E-4</v>
+      </c>
+      <c r="P39" s="37">
+        <v>9.3355999999999995</v>
+      </c>
       <c r="Q39" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R39" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>39</v>
       </c>
-      <c r="B40" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="8">
+      <c r="B40" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="35">
         <v>55</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="35">
         <v>20</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="49" t="s">
-        <v>48</v>
+      <c r="G40" s="37">
+        <v>53.012999999999998</v>
+      </c>
+      <c r="H40" s="36">
+        <v>0.41270000000000001</v>
+      </c>
+      <c r="I40" s="37">
+        <v>50.16</v>
+      </c>
+      <c r="J40" s="36">
+        <v>0.377</v>
+      </c>
+      <c r="K40" s="38">
+        <v>2.9280000000000002E-4</v>
+      </c>
+      <c r="L40" s="37">
+        <v>22.0319</v>
+      </c>
+      <c r="M40" s="37">
+        <v>58.72</v>
+      </c>
+      <c r="N40" s="36">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="O40" s="38">
+        <v>6.0521999999999996E-4</v>
+      </c>
+      <c r="P40" s="37">
+        <v>19.6738</v>
       </c>
       <c r="Q40" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R40" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>40</v>
       </c>
-      <c r="B41" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="44">
+      <c r="B41" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="35">
         <v>55</v>
       </c>
-      <c r="D41" s="44">
+      <c r="D41" s="35">
         <v>10</v>
       </c>
-      <c r="E41" s="44" t="s">
+      <c r="E41" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="F41" s="51" t="s">
-        <v>48</v>
+      <c r="G41" s="37">
+        <v>56.426699999999997</v>
+      </c>
+      <c r="H41" s="36">
+        <v>0.45529999999999998</v>
+      </c>
+      <c r="I41" s="37">
+        <v>50.32</v>
+      </c>
+      <c r="J41" s="36">
+        <v>0.379</v>
+      </c>
+      <c r="K41" s="38">
+        <v>2.9787999999999999E-4</v>
+      </c>
+      <c r="L41" s="37">
+        <v>21.959199999999999</v>
+      </c>
+      <c r="M41" s="37">
+        <v>68.64</v>
+      </c>
+      <c r="N41" s="36">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="O41" s="38">
+        <v>5.3793999999999999E-4</v>
+      </c>
+      <c r="P41" s="37">
+        <v>26.214200000000002</v>
       </c>
       <c r="Q41" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R41" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>41</v>
       </c>
+      <c r="B42" s="43"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="49"/>
       <c r="Q42" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R42" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>42</v>
       </c>
+      <c r="B43" s="50"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="51"/>
       <c r="Q43" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R43" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -3012,61 +3254,61 @@
         <v>43</v>
       </c>
       <c r="Q44" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R44" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44</v>
       </c>
-      <c r="B45" s="43"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="49"/>
       <c r="Q45" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R45" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>45</v>
       </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="49"/>
       <c r="Q46" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R46" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>46</v>
       </c>
+      <c r="B47" s="43"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="49"/>
       <c r="Q47" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R47" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>47</v>
       </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="49"/>
       <c r="Q48" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R48" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
@@ -3074,10 +3316,10 @@
         <v>48</v>
       </c>
       <c r="Q49" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R49" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
@@ -3085,10 +3327,10 @@
         <v>49</v>
       </c>
       <c r="Q50" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R50" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
@@ -3096,10 +3338,10 @@
         <v>50</v>
       </c>
       <c r="Q51" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R51" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
@@ -3107,10 +3349,10 @@
         <v>51</v>
       </c>
       <c r="Q52" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R52" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
@@ -3118,10 +3360,10 @@
         <v>52</v>
       </c>
       <c r="Q53" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R53" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
@@ -3129,30 +3371,21 @@
         <v>53</v>
       </c>
       <c r="Q54" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R54" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>54</v>
       </c>
-      <c r="B55" s="52"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="29"/>
-      <c r="M55" s="29"/>
       <c r="Q55" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R55" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
@@ -3160,1610 +3393,678 @@
         <v>55</v>
       </c>
       <c r="Q56" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R56" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>56</v>
       </c>
+      <c r="B57" s="52"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="29"/>
+      <c r="M57" s="29"/>
       <c r="Q57" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R57" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="40">
-        <v>57</v>
-      </c>
       <c r="Q58" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R58" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="40">
-        <v>58</v>
-      </c>
       <c r="Q59" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R59" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="40">
-        <v>59</v>
-      </c>
       <c r="Q60" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R60" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="40">
-        <v>60</v>
-      </c>
       <c r="Q61" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R61" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="40">
-        <v>61</v>
-      </c>
       <c r="Q62" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R62" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="40">
-        <v>62</v>
-      </c>
       <c r="Q63" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R63" s="71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="40">
-        <v>63</v>
-      </c>
       <c r="Q64" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R64" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="40">
-        <v>64</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q65" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R65" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="40">
-        <v>65</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q66" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R66" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="40">
-        <v>66</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q67" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R67" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="40">
-        <v>67</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q68" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R68" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="40">
-        <v>68</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q69" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R69" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="40">
-        <v>69</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q70" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R70" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="40">
-        <v>70</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q71" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R71" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="40">
-        <v>71</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q72" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R72" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="40">
-        <v>72</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q73" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R73" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="40">
-        <v>73</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q74" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R74" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="40">
-        <v>74</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q75" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R75" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="40">
-        <v>75</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q76" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R76" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="40">
-        <v>76</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q77" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R77" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="40">
-        <v>77</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q78" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R78" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="40">
-        <v>78</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q79" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R79" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="40">
-        <v>79</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q80" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R80" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="40">
-        <v>80</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q81" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R81" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="40">
-        <v>81</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q82" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R82" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83" s="40">
-        <v>82</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q83" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R83" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="40">
-        <v>83</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q84" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R84" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="40">
-        <v>84</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q85" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R85" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86" s="40">
-        <v>85</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q86" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R86" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="40">
-        <v>86</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q87" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R87" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A88" s="40">
-        <v>87</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q88" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R88" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="40">
-        <v>88</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q89" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R89" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A90" s="40">
-        <v>89</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q90" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R90" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="40">
-        <v>90</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q91" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R91" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92" s="40">
-        <v>91</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q92" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R92" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="40">
-        <v>92</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q93" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R93" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="40">
-        <v>93</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q94" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R94" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95" s="40">
-        <v>94</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q95" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R95" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A96" s="40">
-        <v>95</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q96" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R96" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A97" s="40">
-        <v>96</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q97" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R97" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A98" s="40">
-        <v>97</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q98" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R98" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A99" s="40">
-        <v>98</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q99" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R99" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A100" s="40">
-        <v>99</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q100" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R100" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A101" s="40">
-        <v>100</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q101" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R101" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A102" s="40">
-        <v>101</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q102" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R102" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A103" s="40">
-        <v>102</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q103" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R103" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A104" s="40">
-        <v>103</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q104" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R104" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A105" s="40">
-        <v>104</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q105" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R105" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A106" s="40">
-        <v>105</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="106" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q106" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R106" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A107" s="40">
-        <v>106</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q107" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R107" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A108" s="40">
-        <v>107</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q108" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R108" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A109" s="40">
-        <v>108</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="109" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q109" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R109" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A110" s="40">
-        <v>109</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q110" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R110" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A111" s="40">
-        <v>110</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q111" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R111" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A112" s="40">
-        <v>111</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="112" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q112" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R112" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A113" s="40">
-        <v>112</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="113" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q113" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R113" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A114" s="40">
-        <v>113</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="114" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q114" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R114" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A115" s="40">
-        <v>114</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q115" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R115" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A116" s="40">
-        <v>115</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="116" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q116" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R116" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A117" s="40">
-        <v>116</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q117" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R117" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A118" s="40">
-        <v>117</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="118" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q118" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R118" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A119" s="40">
-        <v>118</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="119" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q119" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R119" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A120" s="40">
-        <v>119</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="120" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q120" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R120" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A121" s="40">
-        <v>120</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="121" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q121" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R121" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A122" s="40">
-        <v>121</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="122" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q122" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R122" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A123" s="40">
-        <v>122</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q123" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R123" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A124" s="40">
-        <v>123</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="124" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q124" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R124" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A125" s="40">
-        <v>124</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q125" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R125" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A126" s="40">
-        <v>125</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="126" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q126" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R126" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A127" s="40">
-        <v>126</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="127" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q127" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R127" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A128" s="40">
-        <v>127</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="128" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q128" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R128" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A129" s="40">
-        <v>128</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="129" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q129" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R129" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A130" s="40">
-        <v>129</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="130" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q130" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R130" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A131" s="40">
-        <v>130</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="131" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q131" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R131" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A132" s="40">
-        <v>131</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="132" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q132" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R132" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A133" s="40">
-        <v>132</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="133" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q133" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R133" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A134" s="40">
-        <v>133</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="134" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q134" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R134" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A135" s="40">
-        <v>134</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="135" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q135" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R135" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A136" s="40">
-        <v>135</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="136" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q136" s="70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R136" s="71" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A137" s="40">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A138" s="40">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A139" s="40">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A140" s="40">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A141" s="40">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A142" s="40">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A143" s="40">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A144" s="40">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="40">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="40">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="40">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="40">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="40">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="40">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="40">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="40">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="40">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="40">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="40">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="40">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="40">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="40">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="40">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="40">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="40">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="40">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="40">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="40">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="40">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="40">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="40">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="40">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="40">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="40">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="40">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="40">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="40">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="40">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="40">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="40">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="40">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="40">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="40">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="40">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="40">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="40">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="40">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="40">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="40">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="40">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="40">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="40">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="40">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="40">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="40">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="40">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="40">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="40">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="40">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="40">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="40">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="40">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="40">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="40">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="40">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="40">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="40">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="40">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="40">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="40">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="40">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="40">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="40">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="40">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="40">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="40">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="40">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="40">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="40">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="40">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="40">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="40">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="40">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="40">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="40">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="40">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="40">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="40">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="40">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="40">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="40">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="40">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="40">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="40">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="40">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="40">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="40">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="40">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="40">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="40">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="40">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="40">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="40">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="40">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="40">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="40">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="40">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="40">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="40">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="40">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="40">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="40">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="40">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="40">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="40">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="40">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="40">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="40">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="40">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="40">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="40">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="40">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="40">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="40">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="40">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="40">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="40">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="40">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="40">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="40">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="40">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="40">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="40">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="40">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="40">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="40">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="40">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="40">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="40">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="40">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="40">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="40">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="40">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="40">
-        <v>279</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="137" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q137" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="R137" s="71" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="138" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q138" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="R138" s="71" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -4776,8 +4077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K309"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="G147" sqref="G147:K151"/>
+    <sheetView topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="G197" sqref="G197:K201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9825,401 +9126,1671 @@
       <c r="A152" s="13">
         <v>31</v>
       </c>
-      <c r="B152" s="14"/>
-      <c r="C152" s="15"/>
-      <c r="D152" s="15"/>
-      <c r="E152" s="15"/>
-      <c r="F152" s="16"/>
-      <c r="G152" s="14"/>
-      <c r="H152" s="15"/>
-      <c r="I152" s="15"/>
-      <c r="J152" s="15"/>
-      <c r="K152" s="17"/>
+      <c r="B152" s="14">
+        <v>296</v>
+      </c>
+      <c r="C152" s="15">
+        <v>40</v>
+      </c>
+      <c r="D152" s="15">
+        <v>4</v>
+      </c>
+      <c r="E152" s="15">
+        <v>4</v>
+      </c>
+      <c r="F152" s="16">
+        <v>0</v>
+      </c>
+      <c r="G152" s="14">
+        <v>23</v>
+      </c>
+      <c r="H152" s="15">
+        <v>8</v>
+      </c>
+      <c r="I152" s="15">
+        <v>5</v>
+      </c>
+      <c r="J152" s="15">
+        <v>15</v>
+      </c>
+      <c r="K152" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="18"/>
-      <c r="K153" s="19"/>
+      <c r="B153" s="4">
+        <v>192</v>
+      </c>
+      <c r="C153" s="5">
+        <v>295</v>
+      </c>
+      <c r="D153" s="5">
+        <v>0</v>
+      </c>
+      <c r="E153" s="5">
+        <v>2</v>
+      </c>
+      <c r="F153" s="6">
+        <v>0</v>
+      </c>
+      <c r="G153" s="4">
+        <v>100</v>
+      </c>
+      <c r="H153" s="5">
+        <v>0</v>
+      </c>
+      <c r="I153" s="5">
+        <v>4</v>
+      </c>
+      <c r="J153" s="5">
+        <v>1</v>
+      </c>
+      <c r="K153" s="19">
+        <v>6</v>
+      </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="18"/>
-      <c r="K154" s="19"/>
+      <c r="B154" s="4">
+        <v>3</v>
+      </c>
+      <c r="C154" s="5">
+        <v>160</v>
+      </c>
+      <c r="D154" s="5">
+        <v>482</v>
+      </c>
+      <c r="E154" s="5">
+        <v>0</v>
+      </c>
+      <c r="F154" s="6">
+        <v>2</v>
+      </c>
+      <c r="G154" s="4">
+        <v>0</v>
+      </c>
+      <c r="H154" s="5">
+        <v>116</v>
+      </c>
+      <c r="I154" s="5">
+        <v>35</v>
+      </c>
+      <c r="J154" s="5">
+        <v>1</v>
+      </c>
+      <c r="K154" s="19">
+        <v>6</v>
+      </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="18"/>
-      <c r="K155" s="19"/>
+      <c r="B155" s="4">
+        <v>8</v>
+      </c>
+      <c r="C155" s="5">
+        <v>5</v>
+      </c>
+      <c r="D155" s="5">
+        <v>9</v>
+      </c>
+      <c r="E155" s="5">
+        <v>471</v>
+      </c>
+      <c r="F155" s="6">
+        <v>0</v>
+      </c>
+      <c r="G155" s="4">
+        <v>1</v>
+      </c>
+      <c r="H155" s="5">
+        <v>0</v>
+      </c>
+      <c r="I155" s="5">
+        <v>78</v>
+      </c>
+      <c r="J155" s="5">
+        <v>70</v>
+      </c>
+      <c r="K155" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="20"/>
-      <c r="B156" s="21"/>
-      <c r="C156" s="22"/>
-      <c r="D156" s="22"/>
-      <c r="E156" s="22"/>
-      <c r="F156" s="23"/>
-      <c r="G156" s="21"/>
-      <c r="H156" s="22"/>
-      <c r="I156" s="22"/>
-      <c r="J156" s="22"/>
-      <c r="K156" s="24"/>
+      <c r="B156" s="21">
+        <v>1</v>
+      </c>
+      <c r="C156" s="22">
+        <v>0</v>
+      </c>
+      <c r="D156" s="22">
+        <v>5</v>
+      </c>
+      <c r="E156" s="22">
+        <v>23</v>
+      </c>
+      <c r="F156" s="23">
+        <v>498</v>
+      </c>
+      <c r="G156" s="21">
+        <v>1</v>
+      </c>
+      <c r="H156" s="22">
+        <v>1</v>
+      </c>
+      <c r="I156" s="22">
+        <v>3</v>
+      </c>
+      <c r="J156" s="22">
+        <v>38</v>
+      </c>
+      <c r="K156" s="24">
+        <v>113</v>
+      </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="13">
         <v>32</v>
       </c>
-      <c r="B157" s="14"/>
-      <c r="C157" s="15"/>
-      <c r="D157" s="15"/>
-      <c r="E157" s="15"/>
-      <c r="F157" s="16"/>
-      <c r="G157" s="14"/>
-      <c r="H157" s="15"/>
-      <c r="I157" s="15"/>
-      <c r="J157" s="15"/>
-      <c r="K157" s="17"/>
+      <c r="B157" s="14">
+        <v>265</v>
+      </c>
+      <c r="C157" s="15">
+        <v>15</v>
+      </c>
+      <c r="D157" s="15">
+        <v>0</v>
+      </c>
+      <c r="E157" s="15">
+        <v>15</v>
+      </c>
+      <c r="F157" s="16">
+        <v>0</v>
+      </c>
+      <c r="G157" s="14">
+        <v>33</v>
+      </c>
+      <c r="H157" s="15">
+        <v>4</v>
+      </c>
+      <c r="I157" s="15">
+        <v>16</v>
+      </c>
+      <c r="J157" s="15">
+        <v>10</v>
+      </c>
+      <c r="K157" s="17">
+        <v>12</v>
+      </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="18"/>
-      <c r="K158" s="19"/>
+      <c r="B158" s="4">
+        <v>221</v>
+      </c>
+      <c r="C158" s="5">
+        <v>378</v>
+      </c>
+      <c r="D158" s="5">
+        <v>8</v>
+      </c>
+      <c r="E158" s="5">
+        <v>0</v>
+      </c>
+      <c r="F158" s="6">
+        <v>0</v>
+      </c>
+      <c r="G158" s="4">
+        <v>88</v>
+      </c>
+      <c r="H158" s="5">
+        <v>27</v>
+      </c>
+      <c r="I158" s="5">
+        <v>0</v>
+      </c>
+      <c r="J158" s="5">
+        <v>1</v>
+      </c>
+      <c r="K158" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="18"/>
-      <c r="K159" s="19"/>
+      <c r="B159" s="4">
+        <v>4</v>
+      </c>
+      <c r="C159" s="5">
+        <v>107</v>
+      </c>
+      <c r="D159" s="5">
+        <v>480</v>
+      </c>
+      <c r="E159" s="5">
+        <v>2</v>
+      </c>
+      <c r="F159" s="6">
+        <v>4</v>
+      </c>
+      <c r="G159" s="4">
+        <v>1</v>
+      </c>
+      <c r="H159" s="5">
+        <v>87</v>
+      </c>
+      <c r="I159" s="5">
+        <v>82</v>
+      </c>
+      <c r="J159" s="5">
+        <v>5</v>
+      </c>
+      <c r="K159" s="19">
+        <v>3</v>
+      </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="18"/>
-      <c r="K160" s="19"/>
+      <c r="B160" s="4">
+        <v>5</v>
+      </c>
+      <c r="C160" s="5">
+        <v>0</v>
+      </c>
+      <c r="D160" s="5">
+        <v>8</v>
+      </c>
+      <c r="E160" s="5">
+        <v>476</v>
+      </c>
+      <c r="F160" s="6">
+        <v>0</v>
+      </c>
+      <c r="G160" s="4">
+        <v>2</v>
+      </c>
+      <c r="H160" s="5">
+        <v>4</v>
+      </c>
+      <c r="I160" s="5">
+        <v>27</v>
+      </c>
+      <c r="J160" s="5">
+        <v>94</v>
+      </c>
+      <c r="K160" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="20"/>
-      <c r="B161" s="21"/>
-      <c r="C161" s="22"/>
-      <c r="D161" s="22"/>
-      <c r="E161" s="22"/>
-      <c r="F161" s="23"/>
-      <c r="G161" s="21"/>
-      <c r="H161" s="22"/>
-      <c r="I161" s="22"/>
-      <c r="J161" s="22"/>
-      <c r="K161" s="24"/>
+      <c r="B161" s="21">
+        <v>5</v>
+      </c>
+      <c r="C161" s="22">
+        <v>0</v>
+      </c>
+      <c r="D161" s="22">
+        <v>4</v>
+      </c>
+      <c r="E161" s="22">
+        <v>7</v>
+      </c>
+      <c r="F161" s="23">
+        <v>496</v>
+      </c>
+      <c r="G161" s="21">
+        <v>1</v>
+      </c>
+      <c r="H161" s="22">
+        <v>3</v>
+      </c>
+      <c r="I161" s="22">
+        <v>0</v>
+      </c>
+      <c r="J161" s="22">
+        <v>15</v>
+      </c>
+      <c r="K161" s="24">
+        <v>110</v>
+      </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="13">
         <v>33</v>
       </c>
-      <c r="B162" s="14"/>
-      <c r="C162" s="15"/>
-      <c r="D162" s="15"/>
-      <c r="E162" s="15"/>
-      <c r="F162" s="16"/>
-      <c r="G162" s="14"/>
-      <c r="H162" s="15"/>
-      <c r="I162" s="15"/>
-      <c r="J162" s="15"/>
-      <c r="K162" s="17"/>
+      <c r="B162" s="14">
+        <v>283</v>
+      </c>
+      <c r="C162" s="15">
+        <v>10</v>
+      </c>
+      <c r="D162" s="15">
+        <v>14</v>
+      </c>
+      <c r="E162" s="15">
+        <v>1</v>
+      </c>
+      <c r="F162" s="16">
+        <v>0</v>
+      </c>
+      <c r="G162" s="14">
+        <v>85</v>
+      </c>
+      <c r="H162" s="15">
+        <v>1</v>
+      </c>
+      <c r="I162" s="15">
+        <v>5</v>
+      </c>
+      <c r="J162" s="15">
+        <v>4</v>
+      </c>
+      <c r="K162" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="18"/>
-      <c r="K163" s="19"/>
+      <c r="B163" s="4">
+        <v>197</v>
+      </c>
+      <c r="C163" s="5">
+        <v>407</v>
+      </c>
+      <c r="D163" s="5">
+        <v>15</v>
+      </c>
+      <c r="E163" s="5">
+        <v>2</v>
+      </c>
+      <c r="F163" s="6">
+        <v>0</v>
+      </c>
+      <c r="G163" s="4">
+        <v>29</v>
+      </c>
+      <c r="H163" s="5">
+        <v>88</v>
+      </c>
+      <c r="I163" s="5">
+        <v>16</v>
+      </c>
+      <c r="J163" s="5">
+        <v>6</v>
+      </c>
+      <c r="K163" s="19">
+        <v>4</v>
+      </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="18"/>
-      <c r="K164" s="19"/>
+      <c r="B164" s="4">
+        <v>14</v>
+      </c>
+      <c r="C164" s="5">
+        <v>83</v>
+      </c>
+      <c r="D164" s="5">
+        <v>466</v>
+      </c>
+      <c r="E164" s="5">
+        <v>2</v>
+      </c>
+      <c r="F164" s="6">
+        <v>4</v>
+      </c>
+      <c r="G164" s="4">
+        <v>8</v>
+      </c>
+      <c r="H164" s="5">
+        <v>26</v>
+      </c>
+      <c r="I164" s="5">
+        <v>86</v>
+      </c>
+      <c r="J164" s="5">
+        <v>4</v>
+      </c>
+      <c r="K164" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="18"/>
-      <c r="K165" s="19"/>
+      <c r="B165" s="4">
+        <v>5</v>
+      </c>
+      <c r="C165" s="5">
+        <v>0</v>
+      </c>
+      <c r="D165" s="5">
+        <v>2</v>
+      </c>
+      <c r="E165" s="5">
+        <v>495</v>
+      </c>
+      <c r="F165" s="6">
+        <v>0</v>
+      </c>
+      <c r="G165" s="4">
+        <v>0</v>
+      </c>
+      <c r="H165" s="5">
+        <v>9</v>
+      </c>
+      <c r="I165" s="5">
+        <v>17</v>
+      </c>
+      <c r="J165" s="5">
+        <v>93</v>
+      </c>
+      <c r="K165" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="20"/>
-      <c r="B166" s="21"/>
-      <c r="C166" s="22"/>
-      <c r="D166" s="22"/>
-      <c r="E166" s="22"/>
-      <c r="F166" s="23"/>
-      <c r="G166" s="21"/>
-      <c r="H166" s="22"/>
-      <c r="I166" s="22"/>
-      <c r="J166" s="22"/>
-      <c r="K166" s="24"/>
+      <c r="B166" s="21">
+        <v>1</v>
+      </c>
+      <c r="C166" s="22">
+        <v>0</v>
+      </c>
+      <c r="D166" s="22">
+        <v>3</v>
+      </c>
+      <c r="E166" s="22">
+        <v>0</v>
+      </c>
+      <c r="F166" s="23">
+        <v>496</v>
+      </c>
+      <c r="G166" s="21">
+        <v>3</v>
+      </c>
+      <c r="H166" s="22">
+        <v>1</v>
+      </c>
+      <c r="I166" s="22">
+        <v>1</v>
+      </c>
+      <c r="J166" s="22">
+        <v>18</v>
+      </c>
+      <c r="K166" s="24">
+        <v>116</v>
+      </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="13">
         <v>34</v>
       </c>
-      <c r="B167" s="14"/>
-      <c r="C167" s="15"/>
-      <c r="D167" s="15"/>
-      <c r="E167" s="15"/>
-      <c r="F167" s="16"/>
-      <c r="G167" s="14"/>
-      <c r="H167" s="15"/>
-      <c r="I167" s="15"/>
-      <c r="J167" s="15"/>
-      <c r="K167" s="17"/>
+      <c r="B167" s="14">
+        <v>269</v>
+      </c>
+      <c r="C167" s="15">
+        <v>14</v>
+      </c>
+      <c r="D167" s="15">
+        <v>12</v>
+      </c>
+      <c r="E167" s="15">
+        <v>7</v>
+      </c>
+      <c r="F167" s="16">
+        <v>5</v>
+      </c>
+      <c r="G167" s="14">
+        <v>80</v>
+      </c>
+      <c r="H167" s="15">
+        <v>4</v>
+      </c>
+      <c r="I167" s="15">
+        <v>3</v>
+      </c>
+      <c r="J167" s="15">
+        <v>23</v>
+      </c>
+      <c r="K167" s="17">
+        <v>2</v>
+      </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="18"/>
-      <c r="K168" s="19"/>
+      <c r="B168" s="4">
+        <v>212</v>
+      </c>
+      <c r="C168" s="5">
+        <v>295</v>
+      </c>
+      <c r="D168" s="5">
+        <v>11</v>
+      </c>
+      <c r="E168" s="5">
+        <v>1</v>
+      </c>
+      <c r="F168" s="6">
+        <v>3</v>
+      </c>
+      <c r="G168" s="4">
+        <v>28</v>
+      </c>
+      <c r="H168" s="5">
+        <v>95</v>
+      </c>
+      <c r="I168" s="5">
+        <v>32</v>
+      </c>
+      <c r="J168" s="5">
+        <v>1</v>
+      </c>
+      <c r="K168" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="18"/>
-      <c r="K169" s="19"/>
+      <c r="B169" s="4">
+        <v>7</v>
+      </c>
+      <c r="C169" s="5">
+        <v>183</v>
+      </c>
+      <c r="D169" s="5">
+        <v>453</v>
+      </c>
+      <c r="E169" s="5">
+        <v>0</v>
+      </c>
+      <c r="F169" s="6">
+        <v>1</v>
+      </c>
+      <c r="G169" s="4">
+        <v>14</v>
+      </c>
+      <c r="H169" s="5">
+        <v>14</v>
+      </c>
+      <c r="I169" s="5">
+        <v>88</v>
+      </c>
+      <c r="J169" s="5">
+        <v>6</v>
+      </c>
+      <c r="K169" s="19">
+        <v>9</v>
+      </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="18"/>
-      <c r="K170" s="19"/>
+      <c r="B170" s="4">
+        <v>6</v>
+      </c>
+      <c r="C170" s="5">
+        <v>7</v>
+      </c>
+      <c r="D170" s="5">
+        <v>16</v>
+      </c>
+      <c r="E170" s="5">
+        <v>484</v>
+      </c>
+      <c r="F170" s="6">
+        <v>0</v>
+      </c>
+      <c r="G170" s="4">
+        <v>3</v>
+      </c>
+      <c r="H170" s="5">
+        <v>8</v>
+      </c>
+      <c r="I170" s="5">
+        <v>2</v>
+      </c>
+      <c r="J170" s="5">
+        <v>80</v>
+      </c>
+      <c r="K170" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="20"/>
-      <c r="B171" s="21"/>
-      <c r="C171" s="22"/>
-      <c r="D171" s="22"/>
-      <c r="E171" s="22"/>
-      <c r="F171" s="23"/>
-      <c r="G171" s="21"/>
-      <c r="H171" s="22"/>
-      <c r="I171" s="22"/>
-      <c r="J171" s="22"/>
-      <c r="K171" s="24"/>
+      <c r="B171" s="21">
+        <v>6</v>
+      </c>
+      <c r="C171" s="22">
+        <v>1</v>
+      </c>
+      <c r="D171" s="22">
+        <v>8</v>
+      </c>
+      <c r="E171" s="22">
+        <v>8</v>
+      </c>
+      <c r="F171" s="23">
+        <v>491</v>
+      </c>
+      <c r="G171" s="21">
+        <v>0</v>
+      </c>
+      <c r="H171" s="22">
+        <v>4</v>
+      </c>
+      <c r="I171" s="22">
+        <v>0</v>
+      </c>
+      <c r="J171" s="22">
+        <v>15</v>
+      </c>
+      <c r="K171" s="24">
+        <v>113</v>
+      </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="13">
         <v>35</v>
       </c>
-      <c r="B172" s="14"/>
-      <c r="C172" s="15"/>
-      <c r="D172" s="15"/>
-      <c r="E172" s="15"/>
-      <c r="F172" s="16"/>
-      <c r="G172" s="14"/>
-      <c r="H172" s="15"/>
-      <c r="I172" s="15"/>
-      <c r="J172" s="15"/>
-      <c r="K172" s="17"/>
+      <c r="B172" s="14">
+        <v>337</v>
+      </c>
+      <c r="C172" s="15">
+        <v>11</v>
+      </c>
+      <c r="D172" s="15">
+        <v>0</v>
+      </c>
+      <c r="E172" s="15">
+        <v>11</v>
+      </c>
+      <c r="F172" s="16">
+        <v>0</v>
+      </c>
+      <c r="G172" s="14">
+        <v>19</v>
+      </c>
+      <c r="H172" s="15">
+        <v>15</v>
+      </c>
+      <c r="I172" s="15">
+        <v>10</v>
+      </c>
+      <c r="J172" s="15">
+        <v>1</v>
+      </c>
+      <c r="K172" s="17">
+        <v>2</v>
+      </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="18"/>
-      <c r="K173" s="19"/>
+      <c r="B173" s="4">
+        <v>147</v>
+      </c>
+      <c r="C173" s="5">
+        <v>422</v>
+      </c>
+      <c r="D173" s="5">
+        <v>2</v>
+      </c>
+      <c r="E173" s="5">
+        <v>0</v>
+      </c>
+      <c r="F173" s="6">
+        <v>1</v>
+      </c>
+      <c r="G173" s="4">
+        <v>5</v>
+      </c>
+      <c r="H173" s="5">
+        <v>5</v>
+      </c>
+      <c r="I173" s="5">
+        <v>4</v>
+      </c>
+      <c r="J173" s="5">
+        <v>17</v>
+      </c>
+      <c r="K173" s="19">
+        <v>20</v>
+      </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="18"/>
-      <c r="K174" s="19"/>
+      <c r="B174" s="4">
+        <v>5</v>
+      </c>
+      <c r="C174" s="5">
+        <v>65</v>
+      </c>
+      <c r="D174" s="5">
+        <v>490</v>
+      </c>
+      <c r="E174" s="5">
+        <v>2</v>
+      </c>
+      <c r="F174" s="6">
+        <v>4</v>
+      </c>
+      <c r="G174" s="4">
+        <v>26</v>
+      </c>
+      <c r="H174" s="5">
+        <v>22</v>
+      </c>
+      <c r="I174" s="5">
+        <v>1</v>
+      </c>
+      <c r="J174" s="5">
+        <v>3</v>
+      </c>
+      <c r="K174" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="18"/>
-      <c r="K175" s="19"/>
+      <c r="B175" s="4">
+        <v>10</v>
+      </c>
+      <c r="C175" s="5">
+        <v>2</v>
+      </c>
+      <c r="D175" s="5">
+        <v>6</v>
+      </c>
+      <c r="E175" s="5">
+        <v>487</v>
+      </c>
+      <c r="F175" s="6">
+        <v>0</v>
+      </c>
+      <c r="G175" s="4">
+        <v>0</v>
+      </c>
+      <c r="H175" s="5">
+        <v>6</v>
+      </c>
+      <c r="I175" s="5">
+        <v>34</v>
+      </c>
+      <c r="J175" s="5">
+        <v>10</v>
+      </c>
+      <c r="K175" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="20"/>
-      <c r="B176" s="21"/>
-      <c r="C176" s="22"/>
-      <c r="D176" s="22"/>
-      <c r="E176" s="22"/>
-      <c r="F176" s="23"/>
-      <c r="G176" s="21"/>
-      <c r="H176" s="22"/>
-      <c r="I176" s="22"/>
-      <c r="J176" s="22"/>
-      <c r="K176" s="24"/>
+      <c r="B176" s="21">
+        <v>1</v>
+      </c>
+      <c r="C176" s="22">
+        <v>0</v>
+      </c>
+      <c r="D176" s="22">
+        <v>2</v>
+      </c>
+      <c r="E176" s="22">
+        <v>0</v>
+      </c>
+      <c r="F176" s="23">
+        <v>495</v>
+      </c>
+      <c r="G176" s="21">
+        <v>0</v>
+      </c>
+      <c r="H176" s="22">
+        <v>2</v>
+      </c>
+      <c r="I176" s="22">
+        <v>1</v>
+      </c>
+      <c r="J176" s="22">
+        <v>19</v>
+      </c>
+      <c r="K176" s="24">
+        <v>27</v>
+      </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="13">
         <v>36</v>
       </c>
-      <c r="B177" s="14"/>
-      <c r="C177" s="15"/>
-      <c r="D177" s="15"/>
-      <c r="E177" s="15"/>
-      <c r="F177" s="16"/>
-      <c r="G177" s="14"/>
-      <c r="H177" s="15"/>
-      <c r="I177" s="15"/>
-      <c r="J177" s="15"/>
-      <c r="K177" s="17"/>
+      <c r="B177" s="14">
+        <v>278</v>
+      </c>
+      <c r="C177" s="15">
+        <v>5</v>
+      </c>
+      <c r="D177" s="15">
+        <v>13</v>
+      </c>
+      <c r="E177" s="15">
+        <v>17</v>
+      </c>
+      <c r="F177" s="16">
+        <v>0</v>
+      </c>
+      <c r="G177" s="14">
+        <v>7</v>
+      </c>
+      <c r="H177" s="15">
+        <v>1</v>
+      </c>
+      <c r="I177" s="15">
+        <v>0</v>
+      </c>
+      <c r="J177" s="15">
+        <v>2</v>
+      </c>
+      <c r="K177" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="18"/>
-      <c r="K178" s="19"/>
+      <c r="B178" s="4">
+        <v>201</v>
+      </c>
+      <c r="C178" s="5">
+        <v>316</v>
+      </c>
+      <c r="D178" s="5">
+        <v>32</v>
+      </c>
+      <c r="E178" s="5">
+        <v>0</v>
+      </c>
+      <c r="F178" s="6">
+        <v>0</v>
+      </c>
+      <c r="G178" s="4">
+        <v>35</v>
+      </c>
+      <c r="H178" s="5">
+        <v>4</v>
+      </c>
+      <c r="I178" s="5">
+        <v>3</v>
+      </c>
+      <c r="J178" s="5">
+        <v>4</v>
+      </c>
+      <c r="K178" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="18"/>
-      <c r="K179" s="19"/>
+      <c r="B179" s="4">
+        <v>19</v>
+      </c>
+      <c r="C179" s="5">
+        <v>178</v>
+      </c>
+      <c r="D179" s="5">
+        <v>447</v>
+      </c>
+      <c r="E179" s="5">
+        <v>0</v>
+      </c>
+      <c r="F179" s="6">
+        <v>2</v>
+      </c>
+      <c r="G179" s="4">
+        <v>6</v>
+      </c>
+      <c r="H179" s="5">
+        <v>37</v>
+      </c>
+      <c r="I179" s="5">
+        <v>24</v>
+      </c>
+      <c r="J179" s="5">
+        <v>2</v>
+      </c>
+      <c r="K179" s="19">
+        <v>3</v>
+      </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="18"/>
-      <c r="K180" s="19"/>
+      <c r="B180" s="4">
+        <v>2</v>
+      </c>
+      <c r="C180" s="5">
+        <v>0</v>
+      </c>
+      <c r="D180" s="5">
+        <v>4</v>
+      </c>
+      <c r="E180" s="5">
+        <v>475</v>
+      </c>
+      <c r="F180" s="6">
+        <v>1</v>
+      </c>
+      <c r="G180" s="4">
+        <v>2</v>
+      </c>
+      <c r="H180" s="5">
+        <v>2</v>
+      </c>
+      <c r="I180" s="5">
+        <v>23</v>
+      </c>
+      <c r="J180" s="5">
+        <v>35</v>
+      </c>
+      <c r="K180" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="20"/>
-      <c r="B181" s="21"/>
-      <c r="C181" s="22"/>
-      <c r="D181" s="22"/>
-      <c r="E181" s="22"/>
-      <c r="F181" s="23"/>
-      <c r="G181" s="21"/>
-      <c r="H181" s="22"/>
-      <c r="I181" s="22"/>
-      <c r="J181" s="22"/>
-      <c r="K181" s="24"/>
+      <c r="B181" s="21">
+        <v>0</v>
+      </c>
+      <c r="C181" s="22">
+        <v>1</v>
+      </c>
+      <c r="D181" s="22">
+        <v>4</v>
+      </c>
+      <c r="E181" s="22">
+        <v>8</v>
+      </c>
+      <c r="F181" s="23">
+        <v>497</v>
+      </c>
+      <c r="G181" s="21">
+        <v>0</v>
+      </c>
+      <c r="H181" s="22">
+        <v>6</v>
+      </c>
+      <c r="I181" s="22">
+        <v>0</v>
+      </c>
+      <c r="J181" s="22">
+        <v>7</v>
+      </c>
+      <c r="K181" s="24">
+        <v>44</v>
+      </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="13">
         <v>37</v>
       </c>
-      <c r="B182" s="14"/>
-      <c r="C182" s="15"/>
-      <c r="D182" s="15"/>
-      <c r="E182" s="15"/>
-      <c r="F182" s="16"/>
-      <c r="G182" s="14"/>
-      <c r="H182" s="15"/>
-      <c r="I182" s="15"/>
-      <c r="J182" s="15"/>
-      <c r="K182" s="17"/>
+      <c r="B182" s="14">
+        <v>317</v>
+      </c>
+      <c r="C182" s="15">
+        <v>13</v>
+      </c>
+      <c r="D182" s="15">
+        <v>7</v>
+      </c>
+      <c r="E182" s="15">
+        <v>3</v>
+      </c>
+      <c r="F182" s="16">
+        <v>0</v>
+      </c>
+      <c r="G182" s="14">
+        <v>26</v>
+      </c>
+      <c r="H182" s="15">
+        <v>0</v>
+      </c>
+      <c r="I182" s="15">
+        <v>3</v>
+      </c>
+      <c r="J182" s="15">
+        <v>3</v>
+      </c>
+      <c r="K182" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="18"/>
-      <c r="K183" s="19"/>
+      <c r="B183" s="4">
+        <v>157</v>
+      </c>
+      <c r="C183" s="5">
+        <v>356</v>
+      </c>
+      <c r="D183" s="5">
+        <v>10</v>
+      </c>
+      <c r="E183" s="5">
+        <v>3</v>
+      </c>
+      <c r="F183" s="6">
+        <v>0</v>
+      </c>
+      <c r="G183" s="4">
+        <v>12</v>
+      </c>
+      <c r="H183" s="5">
+        <v>32</v>
+      </c>
+      <c r="I183" s="5">
+        <v>5</v>
+      </c>
+      <c r="J183" s="5">
+        <v>2</v>
+      </c>
+      <c r="K183" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="18"/>
-      <c r="K184" s="19"/>
+      <c r="B184" s="4">
+        <v>20</v>
+      </c>
+      <c r="C184" s="5">
+        <v>95</v>
+      </c>
+      <c r="D184" s="5">
+        <v>457</v>
+      </c>
+      <c r="E184" s="5">
+        <v>0</v>
+      </c>
+      <c r="F184" s="6">
+        <v>1</v>
+      </c>
+      <c r="G184" s="4">
+        <v>6</v>
+      </c>
+      <c r="H184" s="5">
+        <v>15</v>
+      </c>
+      <c r="I184" s="5">
+        <v>21</v>
+      </c>
+      <c r="J184" s="5">
+        <v>10</v>
+      </c>
+      <c r="K184" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="18"/>
-      <c r="K185" s="19"/>
+      <c r="B185" s="4">
+        <v>6</v>
+      </c>
+      <c r="C185" s="5">
+        <v>36</v>
+      </c>
+      <c r="D185" s="5">
+        <v>24</v>
+      </c>
+      <c r="E185" s="5">
+        <v>488</v>
+      </c>
+      <c r="F185" s="6">
+        <v>3</v>
+      </c>
+      <c r="G185" s="4">
+        <v>0</v>
+      </c>
+      <c r="H185" s="5">
+        <v>0</v>
+      </c>
+      <c r="I185" s="5">
+        <v>19</v>
+      </c>
+      <c r="J185" s="5">
+        <v>26</v>
+      </c>
+      <c r="K185" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="20"/>
-      <c r="B186" s="21"/>
-      <c r="C186" s="22"/>
-      <c r="D186" s="22"/>
-      <c r="E186" s="22"/>
-      <c r="F186" s="23"/>
-      <c r="G186" s="21"/>
-      <c r="H186" s="22"/>
-      <c r="I186" s="22"/>
-      <c r="J186" s="22"/>
-      <c r="K186" s="24"/>
+      <c r="B186" s="21">
+        <v>0</v>
+      </c>
+      <c r="C186" s="22">
+        <v>0</v>
+      </c>
+      <c r="D186" s="22">
+        <v>2</v>
+      </c>
+      <c r="E186" s="22">
+        <v>6</v>
+      </c>
+      <c r="F186" s="23">
+        <v>496</v>
+      </c>
+      <c r="G186" s="21">
+        <v>6</v>
+      </c>
+      <c r="H186" s="22">
+        <v>3</v>
+      </c>
+      <c r="I186" s="22">
+        <v>2</v>
+      </c>
+      <c r="J186" s="22">
+        <v>9</v>
+      </c>
+      <c r="K186" s="24">
+        <v>47</v>
+      </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="13">
         <v>38</v>
       </c>
-      <c r="B187" s="14"/>
-      <c r="C187" s="15"/>
-      <c r="D187" s="15"/>
-      <c r="E187" s="15"/>
-      <c r="F187" s="16"/>
-      <c r="G187" s="14"/>
-      <c r="H187" s="15"/>
-      <c r="I187" s="15"/>
-      <c r="J187" s="15"/>
-      <c r="K187" s="17"/>
+      <c r="B187" s="14">
+        <v>20</v>
+      </c>
+      <c r="C187" s="15">
+        <v>18</v>
+      </c>
+      <c r="D187" s="15">
+        <v>30</v>
+      </c>
+      <c r="E187" s="15">
+        <v>9</v>
+      </c>
+      <c r="F187" s="16">
+        <v>0</v>
+      </c>
+      <c r="G187" s="14">
+        <v>21</v>
+      </c>
+      <c r="H187" s="15">
+        <v>1</v>
+      </c>
+      <c r="I187" s="15">
+        <v>19</v>
+      </c>
+      <c r="J187" s="15">
+        <v>11</v>
+      </c>
+      <c r="K187" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="18"/>
-      <c r="K188" s="19"/>
+      <c r="B188" s="4">
+        <v>221</v>
+      </c>
+      <c r="C188" s="5">
+        <v>0</v>
+      </c>
+      <c r="D188" s="5">
+        <v>0</v>
+      </c>
+      <c r="E188" s="5">
+        <v>0</v>
+      </c>
+      <c r="F188" s="6">
+        <v>1</v>
+      </c>
+      <c r="G188" s="4">
+        <v>102</v>
+      </c>
+      <c r="H188" s="5">
+        <v>0</v>
+      </c>
+      <c r="I188" s="5">
+        <v>2</v>
+      </c>
+      <c r="J188" s="5">
+        <v>0</v>
+      </c>
+      <c r="K188" s="19">
+        <v>6</v>
+      </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="18"/>
-      <c r="K189" s="19"/>
+      <c r="B189" s="4">
+        <v>5</v>
+      </c>
+      <c r="C189" s="5">
+        <v>222</v>
+      </c>
+      <c r="D189" s="5">
+        <v>98</v>
+      </c>
+      <c r="E189" s="5">
+        <v>0</v>
+      </c>
+      <c r="F189" s="6">
+        <v>0</v>
+      </c>
+      <c r="G189" s="4">
+        <v>0</v>
+      </c>
+      <c r="H189" s="5">
+        <v>122</v>
+      </c>
+      <c r="I189" s="5">
+        <v>24</v>
+      </c>
+      <c r="J189" s="5">
+        <v>4</v>
+      </c>
+      <c r="K189" s="19">
+        <v>6</v>
+      </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="18"/>
-      <c r="K190" s="19"/>
+      <c r="B190" s="4">
+        <v>1</v>
+      </c>
+      <c r="C190" s="5">
+        <v>9</v>
+      </c>
+      <c r="D190" s="5">
+        <v>122</v>
+      </c>
+      <c r="E190" s="5">
+        <v>224</v>
+      </c>
+      <c r="F190" s="6">
+        <v>1</v>
+      </c>
+      <c r="G190" s="4">
+        <v>2</v>
+      </c>
+      <c r="H190" s="5">
+        <v>1</v>
+      </c>
+      <c r="I190" s="5">
+        <v>80</v>
+      </c>
+      <c r="J190" s="5">
+        <v>80</v>
+      </c>
+      <c r="K190" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="20"/>
-      <c r="B191" s="21"/>
-      <c r="C191" s="22"/>
-      <c r="D191" s="22"/>
-      <c r="E191" s="22"/>
-      <c r="F191" s="23"/>
-      <c r="G191" s="21"/>
-      <c r="H191" s="22"/>
-      <c r="I191" s="22"/>
-      <c r="J191" s="22"/>
-      <c r="K191" s="24"/>
+      <c r="B191" s="21">
+        <v>3</v>
+      </c>
+      <c r="C191" s="22">
+        <v>1</v>
+      </c>
+      <c r="D191" s="22">
+        <v>0</v>
+      </c>
+      <c r="E191" s="22">
+        <v>17</v>
+      </c>
+      <c r="F191" s="23">
+        <v>248</v>
+      </c>
+      <c r="G191" s="21">
+        <v>0</v>
+      </c>
+      <c r="H191" s="22">
+        <v>1</v>
+      </c>
+      <c r="I191" s="22">
+        <v>0</v>
+      </c>
+      <c r="J191" s="22">
+        <v>30</v>
+      </c>
+      <c r="K191" s="24">
+        <v>112</v>
+      </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="13">
         <v>39</v>
       </c>
-      <c r="B192" s="14"/>
-      <c r="C192" s="15"/>
-      <c r="D192" s="15"/>
-      <c r="E192" s="15"/>
-      <c r="F192" s="16"/>
-      <c r="G192" s="14"/>
-      <c r="H192" s="15"/>
-      <c r="I192" s="15"/>
-      <c r="J192" s="15"/>
-      <c r="K192" s="17"/>
+      <c r="B192" s="14">
+        <v>5</v>
+      </c>
+      <c r="C192" s="15">
+        <v>4</v>
+      </c>
+      <c r="D192" s="15">
+        <v>2</v>
+      </c>
+      <c r="E192" s="15">
+        <v>3</v>
+      </c>
+      <c r="F192" s="16">
+        <v>0</v>
+      </c>
+      <c r="G192" s="14">
+        <v>52</v>
+      </c>
+      <c r="H192" s="15">
+        <v>16</v>
+      </c>
+      <c r="I192" s="15">
+        <v>21</v>
+      </c>
+      <c r="J192" s="15">
+        <v>15</v>
+      </c>
+      <c r="K192" s="17">
+        <v>12</v>
+      </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="18"/>
-      <c r="K193" s="19"/>
+      <c r="B193" s="4">
+        <v>239</v>
+      </c>
+      <c r="C193" s="5">
+        <v>1</v>
+      </c>
+      <c r="D193" s="5">
+        <v>1</v>
+      </c>
+      <c r="E193" s="5">
+        <v>1</v>
+      </c>
+      <c r="F193" s="6">
+        <v>0</v>
+      </c>
+      <c r="G193" s="4">
+        <v>62</v>
+      </c>
+      <c r="H193" s="5">
+        <v>44</v>
+      </c>
+      <c r="I193" s="5">
+        <v>5</v>
+      </c>
+      <c r="J193" s="5">
+        <v>4</v>
+      </c>
+      <c r="K193" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="18"/>
-      <c r="K194" s="19"/>
+      <c r="B194" s="4">
+        <v>4</v>
+      </c>
+      <c r="C194" s="5">
+        <v>242</v>
+      </c>
+      <c r="D194" s="5">
+        <v>137</v>
+      </c>
+      <c r="E194" s="5">
+        <v>0</v>
+      </c>
+      <c r="F194" s="6">
+        <v>0</v>
+      </c>
+      <c r="G194" s="4">
+        <v>2</v>
+      </c>
+      <c r="H194" s="5">
+        <v>63</v>
+      </c>
+      <c r="I194" s="5">
+        <v>80</v>
+      </c>
+      <c r="J194" s="5">
+        <v>3</v>
+      </c>
+      <c r="K194" s="19">
+        <v>10</v>
+      </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="18"/>
-      <c r="K195" s="19"/>
+      <c r="B195" s="4">
+        <v>0</v>
+      </c>
+      <c r="C195" s="5">
+        <v>3</v>
+      </c>
+      <c r="D195" s="5">
+        <v>110</v>
+      </c>
+      <c r="E195" s="5">
+        <v>235</v>
+      </c>
+      <c r="F195" s="6">
+        <v>1</v>
+      </c>
+      <c r="G195" s="4">
+        <v>5</v>
+      </c>
+      <c r="H195" s="5">
+        <v>1</v>
+      </c>
+      <c r="I195" s="5">
+        <v>16</v>
+      </c>
+      <c r="J195" s="5">
+        <v>88</v>
+      </c>
+      <c r="K195" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="20"/>
-      <c r="B196" s="21"/>
-      <c r="C196" s="22"/>
-      <c r="D196" s="22"/>
-      <c r="E196" s="22"/>
-      <c r="F196" s="23"/>
-      <c r="G196" s="21"/>
-      <c r="H196" s="22"/>
-      <c r="I196" s="22"/>
-      <c r="J196" s="22"/>
-      <c r="K196" s="24"/>
+      <c r="B196" s="21">
+        <v>2</v>
+      </c>
+      <c r="C196" s="22">
+        <v>0</v>
+      </c>
+      <c r="D196" s="22">
+        <v>0</v>
+      </c>
+      <c r="E196" s="22">
+        <v>11</v>
+      </c>
+      <c r="F196" s="23">
+        <v>249</v>
+      </c>
+      <c r="G196" s="21">
+        <v>4</v>
+      </c>
+      <c r="H196" s="22">
+        <v>1</v>
+      </c>
+      <c r="I196" s="22">
+        <v>3</v>
+      </c>
+      <c r="J196" s="22">
+        <v>15</v>
+      </c>
+      <c r="K196" s="24">
+        <v>103</v>
+      </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="13">
         <v>40</v>
       </c>
-      <c r="B197" s="14"/>
-      <c r="C197" s="15"/>
-      <c r="D197" s="15"/>
-      <c r="E197" s="15"/>
-      <c r="F197" s="16"/>
-      <c r="G197" s="14"/>
-      <c r="H197" s="15"/>
-      <c r="I197" s="15"/>
-      <c r="J197" s="15"/>
-      <c r="K197" s="17"/>
+      <c r="B197" s="14">
+        <v>31</v>
+      </c>
+      <c r="C197" s="15">
+        <v>2</v>
+      </c>
+      <c r="D197" s="15">
+        <v>5</v>
+      </c>
+      <c r="E197" s="15">
+        <v>20</v>
+      </c>
+      <c r="F197" s="16">
+        <v>0</v>
+      </c>
+      <c r="G197" s="14">
+        <v>68</v>
+      </c>
+      <c r="H197" s="15">
+        <v>4</v>
+      </c>
+      <c r="I197" s="15">
+        <v>17</v>
+      </c>
+      <c r="J197" s="15">
+        <v>2</v>
+      </c>
+      <c r="K197" s="17">
+        <v>8</v>
+      </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="18"/>
-      <c r="K198" s="19"/>
+      <c r="B198" s="4">
+        <v>215</v>
+      </c>
+      <c r="C198" s="5">
+        <v>0</v>
+      </c>
+      <c r="D198" s="5">
+        <v>0</v>
+      </c>
+      <c r="E198" s="5">
+        <v>0</v>
+      </c>
+      <c r="F198" s="6">
+        <v>0</v>
+      </c>
+      <c r="G198" s="4">
+        <v>44</v>
+      </c>
+      <c r="H198" s="5">
+        <v>84</v>
+      </c>
+      <c r="I198" s="5">
+        <v>17</v>
+      </c>
+      <c r="J198" s="5">
+        <v>5</v>
+      </c>
+      <c r="K198" s="19">
+        <v>8</v>
+      </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="18"/>
-      <c r="K199" s="19"/>
+      <c r="B199" s="4">
+        <v>2</v>
+      </c>
+      <c r="C199" s="5">
+        <v>243</v>
+      </c>
+      <c r="D199" s="5">
+        <v>143</v>
+      </c>
+      <c r="E199" s="5">
+        <v>1</v>
+      </c>
+      <c r="F199" s="6">
+        <v>0</v>
+      </c>
+      <c r="G199" s="4">
+        <v>5</v>
+      </c>
+      <c r="H199" s="5">
+        <v>33</v>
+      </c>
+      <c r="I199" s="5">
+        <v>78</v>
+      </c>
+      <c r="J199" s="5">
+        <v>9</v>
+      </c>
+      <c r="K199" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="18"/>
-      <c r="K200" s="19"/>
+      <c r="B200" s="4">
+        <v>2</v>
+      </c>
+      <c r="C200" s="5">
+        <v>5</v>
+      </c>
+      <c r="D200" s="5">
+        <v>102</v>
+      </c>
+      <c r="E200" s="5">
+        <v>206</v>
+      </c>
+      <c r="F200" s="6">
+        <v>1</v>
+      </c>
+      <c r="G200" s="4">
+        <v>7</v>
+      </c>
+      <c r="H200" s="5">
+        <v>3</v>
+      </c>
+      <c r="I200" s="5">
+        <v>12</v>
+      </c>
+      <c r="J200" s="5">
+        <v>91</v>
+      </c>
+      <c r="K200" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="20"/>
-      <c r="B201" s="21"/>
-      <c r="C201" s="22"/>
-      <c r="D201" s="22"/>
-      <c r="E201" s="22"/>
-      <c r="F201" s="23"/>
-      <c r="G201" s="21"/>
-      <c r="H201" s="22"/>
-      <c r="I201" s="22"/>
-      <c r="J201" s="22"/>
-      <c r="K201" s="24"/>
+      <c r="B201" s="21">
+        <v>0</v>
+      </c>
+      <c r="C201" s="22">
+        <v>0</v>
+      </c>
+      <c r="D201" s="22">
+        <v>0</v>
+      </c>
+      <c r="E201" s="22">
+        <v>23</v>
+      </c>
+      <c r="F201" s="23">
+        <v>249</v>
+      </c>
+      <c r="G201" s="21">
+        <v>1</v>
+      </c>
+      <c r="H201" s="22">
+        <v>1</v>
+      </c>
+      <c r="I201" s="22">
+        <v>1</v>
+      </c>
+      <c r="J201" s="22">
+        <v>18</v>
+      </c>
+      <c r="K201" s="24">
+        <v>108</v>
+      </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="13">
